--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-6.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-6.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to open (something) &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to open (something) (～を)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -380,7 +380,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to close (something) &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to close (something) (～を)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -392,7 +392,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to teach; to instruct &lt;small&gt;(&lt;em&gt;person&lt;/em&gt; に &lt;em&gt;thing&lt;/em&gt; を)&lt;/small&gt;</t>
+          <t>to teach; to instruct (person に thing を)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -404,7 +404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to forget; to leave behind &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to forget; to leave behind (～を)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -416,7 +416,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>to get off &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to get off (～を)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -428,7 +428,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>to borrow &lt;small&gt;(&lt;em&gt;person&lt;/em&gt; に &lt;em&gt;thing&lt;/em&gt; を)&lt;/small&gt;</t>
+          <t>to borrow (person に thing を)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -452,7 +452,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>to turn on &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to turn on (～を)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -464,7 +464,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>to call &lt;small&gt;(～に)&lt;/small&gt;</t>
+          <t>to call (～に)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -476,7 +476,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>to bring (a person) &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to bring (a person) (～を)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>to bring (a thing) &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to bring (a thing) (～を)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -896,7 +896,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>to return (a thing) &lt;small&gt;(&lt;em&gt;person&lt;/em&gt; に &lt;em&gt;thing&lt;/em&gt; を)&lt;/small&gt;</t>
+          <t>to return (a thing) (person に thing を)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -908,7 +908,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>to turn off; to erase &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to turn off; to erase (～を)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -932,7 +932,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>to sit down &lt;small&gt;(&lt;em&gt;seat&lt;/em&gt; に)&lt;/small&gt;</t>
+          <t>to sit down (seat に)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -968,7 +968,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>to use &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to use (～を)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -980,7 +980,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>to help &lt;small&gt;(&lt;em&gt;person/task&lt;/em&gt; を)&lt;/small&gt;</t>
+          <t>to help (person/task を)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>to enter &lt;small&gt;(～に)&lt;/small&gt;</t>
+          <t>to enter (～に)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1004,7 +1004,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>to carry; to hold &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to carry; to hold (～を)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1016,7 +1016,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>(1) to be absent (from...) &lt;small&gt;(～を)&lt;/small&gt;; (2) to rest</t>
+          <t>(1) to be absent (from...) (～を); (2) to rest</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">

--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-6.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-6.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,1540 +436,1540 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to open (something) (～を)</t>
+          <t>kanji; Chinese character</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>開ける|あける</t>
+          <t>漢字|かんじ</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to close (something) (～を)</t>
+          <t>textbook</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>閉める|しめる</t>
+          <t>教科書|きょうかしょ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to teach; to instruct (person に thing を)</t>
+          <t>page</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>教える|おしえる</t>
+          <t>ページ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to forget; to leave behind (～を)</t>
+          <t>next</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>忘れる|わすれる</t>
+          <t>次|つぎ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>to get off (～を)</t>
+          <t>money</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>降りる|おりる</t>
+          <t>お金|おかね</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>to borrow (person に thing を)</t>
+          <t>baggage</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>借りる|かりる</t>
+          <t>荷物|にもつ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>to take a shower</t>
+          <t>personal computer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>シャワーを浴びる|シャワーをあびる</t>
+          <t>パソコン</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>to turn on (～を)</t>
+          <t>shower</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>つける</t>
+          <t>シャワー</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>to call (～に)</t>
+          <t>air conditioner</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>電話する|でんわする</t>
+          <t>エアコン</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>to bring (a person) (～を)</t>
+          <t>electricity; light</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>連れてくる|つれてくる</t>
+          <t>電気|でんき</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>to bring (a thing) (～を)</t>
+          <t>window</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>持ってくる|もってくる</t>
+          <t>窓|まど</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>electricity; light</t>
+          <t>train</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>電気|でんき</t>
+          <t>電車|でんしゃ</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>window</t>
+          <t>country; place of origin</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>窓|まど</t>
+          <t>国|くに</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>this week</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>電車|でんしゃ</t>
+          <t>今週|こんしゅう</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>country; place of origin</t>
+          <t>next week</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>国|くに</t>
+          <t>来週|らいしゅう</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>this week</t>
+          <t>next year</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>今週|こんしゅう</t>
+          <t>来年|らいねん</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>next week</t>
+          <t>night</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>来週|らいしゅう</t>
+          <t>夜|よる</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>next year</t>
+          <t>tough (situation)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>来年|らいねん</t>
+          <t>大変|たいへん（な）</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>to play; to spend time pleasantly</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>夜|よる</t>
+          <t>遊ぶ|あそぶ</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>tough (situation)</t>
+          <t>to hurry</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>大変|たいへん（な）</t>
+          <t>急ぐ|いそぐ</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>to ask for directions; to ask the way</t>
+          <t>to return (a thing) (person に thing を)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>道を聞く|みちをきく</t>
+          <t>返す|かえす</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>go straight</t>
+          <t>to turn off; to erase (～を)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>まっすぐ行く|まっすぐいき</t>
+          <t>消す|けす</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>turn left</t>
+          <t>to die</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>左に曲がる|ひだりにまがる</t>
+          <t>死ぬ|しぬ</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>turn right</t>
+          <t>to sit down (seat に)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>右に曲がる|みぎにまがる</t>
+          <t>座る|すわる</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>cross the street</t>
+          <t>to stand up</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>道を渡る|みちをわたる</t>
+          <t>立つ|たつ</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>turn left at the second corner</t>
+          <t>to smoke</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>二つ目の角を左に曲がる|ふたつめのかどをひだりにまがる</t>
+          <t>たばこを吸う|たばこをすう</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>turn right at the first traffic light</t>
+          <t>to use (～を)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>一つ目の信号を右に曲がる|ひとつめのしんごうをみぎにまがる</t>
+          <t>使う|つかう</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>left side of the street</t>
+          <t>to help (person/task を)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>道の左側|みちのひだりがわ</t>
+          <t>手伝う|てつだう</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>right side of the street</t>
+          <t>to enter (～に)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>道の右側|みちのみぎがわ</t>
+          <t>入る|はいる</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>north</t>
+          <t>to carry; to hold (～を)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>北|きた</t>
+          <t>持つ|もつ</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>east</t>
+          <t>(1) to be absent (from...) (～を); (2) to rest</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>東|ひがし</t>
+          <t>休む|やすむ</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>south</t>
+          <t>to open (something) (～を)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>南|みなみ</t>
+          <t>開ける|あける</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>west</t>
+          <t>to close (something) (～を)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>西|にし</t>
+          <t>閉める|しめる</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>kanji; Chinese character</t>
+          <t>to teach; to instruct (person に thing を)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>漢字|かんじ</t>
+          <t>教える|おしえる</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>textbook</t>
+          <t>to forget; to leave behind (～を)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>教科書|きょうかしょ</t>
+          <t>忘れる|わすれる</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>page</t>
+          <t>to get off (～を)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ページ</t>
+          <t>降りる|おりる</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>next</t>
+          <t>to borrow (person に thing を)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>次|つぎ</t>
+          <t>借りる|かりる</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>money</t>
+          <t>to take a shower</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>お金|おかね</t>
+          <t>シャワーを浴びる|シャワーをあびる</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>baggage</t>
+          <t>to turn on (～を)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>荷物|にもつ</t>
+          <t>つける</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>personal computer</t>
+          <t>to call (～に)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>パソコン</t>
+          <t>電話する|でんわする</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>shower</t>
+          <t>to bring (a person) (～を)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>シャワー</t>
+          <t>連れてくる|つれてくる</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>air conditioner</t>
+          <t>to bring (a thing) (～を)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>エアコン</t>
+          <t>持ってくる|もってくる</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>to play; to spend time pleasantly</t>
+          <t>later on</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>遊ぶ|あそぶ</t>
+          <t>後で|あとで</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>to hurry</t>
+          <t>right away</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>急ぐ|いそぐ</t>
+          <t>すぐ</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>to return (a thing) (person に thing を)</t>
+          <t>slowly; leisurely; unhurriedly</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>返す|かえす</t>
+          <t>ゆっくり</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>to turn off; to erase (～を)</t>
+          <t>That would be fine.; That wouldn't be necessary.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>消す|けす</t>
+          <t>結構です|けっこうです</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>to die</t>
+          <t>Really?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>死ぬ|しぬ</t>
+          <t>本当ですか|ほんとうですか</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>to sit down (seat に)</t>
+          <t>to ask for directions; to ask the way</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>座る|すわる</t>
+          <t>道を聞く|みちをきく</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>to stand up</t>
+          <t>go straight</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>立つ|たつ</t>
+          <t>まっすぐ行く|まっすぐいき</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>to smoke</t>
+          <t>turn left</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>たばこを吸う|たばこをすう</t>
+          <t>左に曲がる|ひだりにまがる</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>to use (～を)</t>
+          <t>turn right</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>使う|つかう</t>
+          <t>右に曲がる|みぎにまがる</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>to help (person/task を)</t>
+          <t>cross the street</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>手伝う|てつだう</t>
+          <t>道を渡る|みちをわたる</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>to enter (～に)</t>
+          <t>turn left at the second corner</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>入る|はいる</t>
+          <t>二つ目の角を左に曲がる|ふたつめのかどをひだりにまがる</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>to carry; to hold (～を)</t>
+          <t>turn right at the first traffic light</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>持つ|もつ</t>
+          <t>一つ目の信号を右に曲がる|ひとつめのしんごうをみぎにまがる</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>(1) to be absent (from...) (～を); (2) to rest</t>
+          <t>left side of the street</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>休む|やすむ</t>
+          <t>道の左側|みちのひだりがわ</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>later on</t>
+          <t>right side of the street</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>後で|あとで</t>
+          <t>道の右側|みちのみぎがわ</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>right away</t>
+          <t>north</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>すぐ</t>
+          <t>北|きた</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>slowly; leisurely; unhurriedly</t>
+          <t>east</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ゆっくり</t>
+          <t>東|ひがし</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>That would be fine.; That wouldn't be necessary.</t>
+          <t>south</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>結構です|けっこうです</t>
+          <t>南|みなみ</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Really?</t>
+          <t>west</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>本当ですか|ほんとうですか</t>
+          <t>西|にし</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>north</t>
+          <t>east</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>北|きた</t>
+          <t>東|ひがし</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>north exit</t>
+          <t>east exit</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>北口|きたぐち</t>
+          <t>東口|ひがしぐち</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Tohoku area</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>東北|とうほく</t>
+          <t>東京|とうきょう</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>North Pole</t>
+          <t>Kanto area</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>北極|ほっきょく</t>
+          <t>関東|かんとう</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Hokkaido</t>
+          <t>the East</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>北海道|ほっかいどう</t>
+          <t>東洋|とうよう</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>mouth</t>
+          <t>west</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>口|くち</t>
+          <t>西|にし</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>west exit</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>人口|じんこう</t>
+          <t>西口|にしぐち</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>entrance</t>
+          <t>northwest</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>入り口／入口|いりぐち</t>
+          <t>北西|ほくせい</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>to exit</t>
+          <t>Kansai area</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>出る|でる</t>
+          <t>関西|かんさい</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>the West</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>出口|でぐち</t>
+          <t>西洋|せいよう</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>to go out</t>
+          <t>south</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>出かける|でかける</t>
+          <t>南|みなみ</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>to take something out</t>
+          <t>south exit</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>出す|だす</t>
+          <t>南口|みなみぐち</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>attendance</t>
+          <t>southeast</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>出席|しゅっせき</t>
+          <t>南東|なんとう</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>export</t>
+          <t>Antarctica</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>輸出|ゆしゅつ</t>
+          <t>南極|なんきょく</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>Southeast Asia</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>先生|せんせい</t>
+          <t>東南アジア|とうなんアジア</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>last week</t>
+          <t>north</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>先週|せんしゅう</t>
+          <t>北|きた</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ahead</t>
+          <t>north exit</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>先に|さきに</t>
+          <t>北口|きたぐち</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>last month</t>
+          <t>Tohoku area</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>先月|せんげつ</t>
+          <t>東北|とうほく</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>senior member</t>
+          <t>North Pole</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>先輩|せんぱい</t>
+          <t>北極|ほっきょく</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>Hokkaido</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>学生|がくせい</t>
+          <t>北海道|ほっかいどう</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>to be born</t>
+          <t>mouth</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>生まれる|うまれる</t>
+          <t>口|くち</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>once in a life time</t>
+          <t>population</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>一生に一度|いっしょうにいちど</t>
+          <t>人口|じんこう</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>college student</t>
+          <t>entrance</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>大学生|だいがくせい</t>
+          <t>入り口／入口|いりぐち</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>big</t>
+          <t>to exit</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>大きい|おおきい</t>
+          <t>出る|でる</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>tough</t>
+          <t>exit</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>大変な|たいへんな</t>
+          <t>出口|でぐち</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>to go out</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>大人|おとな</t>
+          <t>出かける|でかける</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>embassy</t>
+          <t>to take something out</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>大使館|たいしかん</t>
+          <t>出す|だす</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>attendance</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>大学|だいがく</t>
+          <t>出席|しゅっせき</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>export</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>学生|がくせい</t>
+          <t>輸出|ゆしゅつ</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>right</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>学校|がっこう</t>
+          <t>右|みぎ</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>to study</t>
+          <t>right turn</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>学ぶ|まなぶ</t>
+          <t>右折|うせつ</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>department; faculty</t>
+          <t>right and left</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>学部|がくぶ</t>
+          <t>左右|さゆう</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>foreign country</t>
+          <t>right hand</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>外国|がいこく</t>
+          <t>右手|みぎて</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>foreigner</t>
+          <t>right side</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>外国人|がいこくじん</t>
+          <t>右側|みぎがわ</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>outside</t>
+          <t>left</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>外|そと</t>
+          <t>左|ひだり</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>overseas</t>
+          <t>left turn</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>海外|かいがい</t>
+          <t>左折|させつ</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>left hand</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>中国|ちゅうごく</t>
+          <t>左手|ひだりて</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>left-handed</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>国|くに</t>
+          <t>左利き|ひだりきき</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>five minutes</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>韓国|かんこく</t>
+          <t>五分|ごふん</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>the Diet</t>
+          <t>ten minutes</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>国会|こっかい</t>
+          <t>十分|じゅっぷん／じっぷん</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>east</t>
+          <t>oneself</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>東|ひがし</t>
+          <t>自分|じぶん</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>east exit</t>
+          <t>to divide</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>東口|ひがしぐち</t>
+          <t>分ける|わける</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>東京|とうきょう</t>
+          <t>先生|せんせい</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kanto area</t>
+          <t>last week</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>関東|かんとう</t>
+          <t>先週|せんしゅう</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>the East</t>
+          <t>ahead</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>東洋|とうよう</t>
+          <t>先に|さきに</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>west</t>
+          <t>last month</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>西|にし</t>
+          <t>先月|せんげつ</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>west exit</t>
+          <t>senior member</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>西口|にしぐち</t>
+          <t>先輩|せんぱい</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>northwest</t>
+          <t>student</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>北西|ほくせい</t>
+          <t>学生|がくせい</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Kansai area</t>
+          <t>to be born</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>関西|かんさい</t>
+          <t>生まれる|うまれる</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>the West</t>
+          <t>once in a life time</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>西洋|せいよう</t>
+          <t>一生に一度|いっしょうにいちど</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>south</t>
+          <t>college student</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>南|みなみ</t>
+          <t>大学生|だいがくせい</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>south exit</t>
+          <t>big</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>南口|みなみぐち</t>
+          <t>大きい|おおきい</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>southeast</t>
+          <t>tough</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>南東|なんとう</t>
+          <t>大変な|たいへんな</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Antarctica</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>南極|なんきょく</t>
+          <t>大人|おとな</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Southeast Asia</t>
+          <t>embassy</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>東南アジア|とうなんアジア</t>
+          <t>大使館|たいしかん</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>university</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>右|みぎ</t>
+          <t>大学|だいがく</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>right turn</t>
+          <t>student</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>右折|うせつ</t>
+          <t>学生|がくせい</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>right and left</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>左右|さゆう</t>
+          <t>学校|がっこう</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>right hand</t>
+          <t>to study</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>右手|みぎて</t>
+          <t>学ぶ|まなぶ</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>right side</t>
+          <t>department; faculty</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>右側|みぎがわ</t>
+          <t>学部|がくぶ</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>foreign country</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>左|ひだり</t>
+          <t>外国|がいこく</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>left turn</t>
+          <t>foreigner</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>左折|させつ</t>
+          <t>外国人|がいこくじん</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>left hand</t>
+          <t>outside</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>左手|ひだりて</t>
+          <t>外|そと</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>left-handed</t>
+          <t>overseas</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>左利き|ひだりきき</t>
+          <t>海外|かいがい</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>five minutes</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>五分|ごふん</t>
+          <t>中国|ちゅうごく</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ten minutes</t>
+          <t>country</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>十分|じゅっぷん／じっぷん</t>
+          <t>国|くに</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>oneself</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>自分|じぶん</t>
+          <t>韓国|かんこく</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>to divide</t>
+          <t>the Diet</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>分ける|わける</t>
+          <t>国会|こっかい</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-6.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-6.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1970,6 +1970,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-6.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-6.xlsx
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>まっすぐ行く|まっすぐいき</t>
+          <t>まっすぐ行く|まっすぐいく</t>
         </is>
       </c>
     </row>
